--- a/src/test/java/ApachePOI/resource/CucumberTestSonuçlari.xlsx
+++ b/src/test/java/ApachePOI/resource/CucumberTestSonuçlari.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>Create and Delete CitizenShip from excel</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -326,6 +326,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
